--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625617</v>
+        <v>399383.5293367549</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347745</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815499</v>
+        <v>8673692.685730744</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>123.0172992876058</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52.04897529147647</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345808</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.73964154763134</v>
       </c>
     </row>
     <row r="4">
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474364</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13.47835778729046</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.21594625443442</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>43.07008646612834</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880633</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>178.8948621820427</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>52.04897529147662</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345807</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>146.8461210887088</v>
+        <v>73.70634269924216</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.41405905276496</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.396723986041543</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>88.09081815943084</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>92.73964154763127</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>129.1249002056632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.11163636040603</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>24.14763241892768</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>204.5947623500361</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1505,7 +1505,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394535</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>76.1288311097759</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>5.732180395783086</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.732180395783312</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>94.57983363107959</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>346.321285169391</v>
       </c>
       <c r="E17" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1976,7 +1976,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U18" t="n">
         <v>225.7871683969286</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.154551188815767</v>
       </c>
       <c r="E19" t="n">
-        <v>67.56719349698601</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>173.6076827274348</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>136.3896895755412</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.7175251574346</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.95866062610959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>117.0340619339633</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>37.2870774311542</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>78.64052583743675</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>40.87152028304765</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>44.7595153068084</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>4.791624857388847</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.91073356940604</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>209.7083496784902</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>37.28707743115375</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>119.1488185988159</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>163.9628781690751</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>89.45423727436598</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>49.56582321395867</v>
       </c>
       <c r="D34" t="n">
-        <v>54.45803047044415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.6499314317624</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>236.1496593854072</v>
       </c>
     </row>
     <row r="36">
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>48.34481037435884</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>59.4252091074422</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>89.48046147214303</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883145</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>115.0138334144179</v>
+        <v>238.1138357058005</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>373.5689935409296</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>201.8731589524258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247745</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>28.62349672839956</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>184.5657038752008</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>249.7858391833443</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0.6767922104146555</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>53.54735467376803</v>
       </c>
       <c r="F46" t="n">
-        <v>102.093356335632</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.396238631475</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C2" t="n">
-        <v>18.13634036116612</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D2" t="n">
-        <v>18.13634036116612</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E2" t="n">
-        <v>18.13634036116612</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F2" t="n">
-        <v>18.13634036116612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>18.13634036116612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>18.13634036116612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>18.13634036116612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779182994</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458394</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066255</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588561</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735306</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W2" t="n">
-        <v>439.0550691137147</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X2" t="n">
-        <v>439.0550691137147</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.7256538725949</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.6518274448594</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>212.6518274448594</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>212.6518274448594</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>64.32241220373959</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>64.32241220373959</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>12.36141687342332</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>111.9554248488219</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>247.5338027825023</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>392.9114626603238</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>511.1831359408226</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>509.3106579270991</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>509.3106579270991</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T3" t="n">
-        <v>509.3106579270991</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="U3" t="n">
-        <v>509.3106579270991</v>
+        <v>487.518022609943</v>
       </c>
       <c r="V3" t="n">
-        <v>509.3106579270991</v>
+        <v>298.0982375934583</v>
       </c>
       <c r="W3" t="n">
-        <v>509.3106579270991</v>
+        <v>108.6784525769736</v>
       </c>
       <c r="X3" t="n">
-        <v>509.3106579270991</v>
+        <v>108.6784525769736</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.9812426859793</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543243</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510274</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665712</v>
+        <v>66.41847329396333</v>
       </c>
       <c r="O4" t="n">
-        <v>25.3621925025416</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="P4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="R4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="S4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="T4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="U4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="V4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.25282753167079</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="C5" t="n">
-        <v>55.25282753167079</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="D5" t="n">
-        <v>55.25282753167079</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="E5" t="n">
-        <v>55.25282753167079</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F5" t="n">
-        <v>55.25282753167079</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G5" t="n">
-        <v>55.25282753167079</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H5" t="n">
-        <v>55.25282753167079</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709671</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183029</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458398</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066259</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588565</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735312</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548353</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>500.2410732550309</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S5" t="n">
-        <v>500.2410732550309</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T5" t="n">
-        <v>500.2410732550309</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="U5" t="n">
-        <v>500.2410732550309</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="V5" t="n">
-        <v>500.2410732550309</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="W5" t="n">
-        <v>351.9116580139109</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="X5" t="n">
-        <v>203.5822427727908</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="Y5" t="n">
-        <v>55.25282753167079</v>
+        <v>141.7407511348962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.32241220373976</v>
+        <v>486.231712437439</v>
       </c>
       <c r="C6" t="n">
-        <v>64.32241220373976</v>
+        <v>311.778683156312</v>
       </c>
       <c r="D6" t="n">
-        <v>64.32241220373976</v>
+        <v>311.778683156312</v>
       </c>
       <c r="E6" t="n">
-        <v>64.32241220373976</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F6" t="n">
-        <v>64.32241220373976</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616825</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>111.9554248488222</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>247.5338027825027</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9114626603244</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408233</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200486</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>509.3106579270999</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>360.9812426859799</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T6" t="n">
-        <v>360.9812426859799</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U6" t="n">
-        <v>360.9812426859799</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V6" t="n">
-        <v>360.9812426859799</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W6" t="n">
-        <v>212.6518274448598</v>
+        <v>486.231712437439</v>
       </c>
       <c r="X6" t="n">
-        <v>212.6518274448598</v>
+        <v>486.231712437439</v>
       </c>
       <c r="Y6" t="n">
-        <v>64.32241220373976</v>
+        <v>486.231712437439</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G7" t="n">
-        <v>33.37805236665727</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>33.37805236665727</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>33.37805236665727</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>33.37805236665727</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543247</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510284</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665727</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.8416170062753</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C8" t="n">
-        <v>393.8416170062753</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8416170062753</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062753</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>393.8416170062753</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897905</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>743.6410113056421</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S8" t="n">
-        <v>583.2614020227602</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="T8" t="n">
-        <v>583.2614020227602</v>
+        <v>482.8222414097406</v>
       </c>
       <c r="U8" t="n">
-        <v>583.2614020227602</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="V8" t="n">
-        <v>583.2614020227602</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="W8" t="n">
-        <v>583.2614020227602</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="X8" t="n">
-        <v>583.2614020227602</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.2614020227602</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>460.4357015328919</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>313.9011435597769</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S9" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="T9" t="n">
-        <v>750.10234866528</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U9" t="n">
-        <v>750.10234866528</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V9" t="n">
-        <v>750.10234866528</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W9" t="n">
-        <v>750.10234866528</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X9" t="n">
-        <v>750.10234866528</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>29.24882464404146</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2071.975386180639</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>1703.012869240227</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>1344.747170633477</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>958.9589180352325</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>547.973013245625</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>132.9005630906215</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5059,7 +5059,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.975386180639</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5123,10 +5123,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,34 +5138,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181845</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181845</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181845</v>
+        <v>589.3047084105042</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181845</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181845</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1238.038871968309</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C14" t="n">
-        <v>869.0763550278969</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D14" t="n">
         <v>863.2862738200351</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3319.815740401309</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883007</v>
+        <v>3066.285263675145</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539436</v>
+        <v>2735.222376331575</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269322</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X14" t="n">
-        <v>2014.778044008242</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y14" t="n">
-        <v>1624.63871203243</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5469,19 +5469,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392149</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324644</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.8974549201677</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="C19" t="n">
-        <v>692.8974549201677</v>
+        <v>530.184207459804</v>
       </c>
       <c r="D19" t="n">
-        <v>692.8974549201677</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5682,43 +5682,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W19" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X19" t="n">
-        <v>692.8974549201677</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.8974549201677</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.208022973022</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X20" t="n">
-        <v>1934.208022973022</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y20" t="n">
-        <v>1934.208022973022</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5819,46 +5819,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>323.2177459073005</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>176.3277984093901</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438285</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379416</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W22" t="n">
-        <v>87.68248070098099</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.154071768027</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.154071768027</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.154071768027</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,7 +5989,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2718.368643431721</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C25" t="n">
-        <v>2718.368643431721</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D25" t="n">
-        <v>2718.368643431721</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>2718.368643431721</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>2638.933768848451</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>2946.358194329738</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>2718.368643431721</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>2718.368643431721</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1636.624422581789</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
         <v>892.5704713767946</v>
@@ -6217,61 +6217,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3320.765796500697</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3320.765796500697</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>3067.235319774533</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2736.172432430963</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2383.403777160848</v>
       </c>
       <c r="X26" t="n">
-        <v>2071.97538618064</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y26" t="n">
-        <v>1681.836054204828</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3235.775364366699</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>3235.775364366699</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>3177.279673892552</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>3029.366580310158</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>2882.476632812248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>2714.773796186967</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>3235.775364366699</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V28" t="n">
-        <v>3235.775364366699</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W28" t="n">
-        <v>3235.775364366699</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X28" t="n">
-        <v>3235.775364366699</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y28" t="n">
-        <v>3235.775364366699</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1632.511388127729</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.548871187317</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>905.2831725805665</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>519.4949199823222</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6496,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3113.779205772313</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>2782.716318428742</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2782.716318428742</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X29" t="n">
-        <v>2409.250560167662</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>2019.11122819185</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7841389438286</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372933</v>
@@ -6630,43 +6630,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438286</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V31" t="n">
-        <v>631.7841389438286</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W31" t="n">
-        <v>631.7841389438286</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X31" t="n">
-        <v>631.7841389438286</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.7841389438286</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>567.8558366504435</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>156.8699318608359</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060172</v>
@@ -6718,34 +6718,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792697</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792697</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.786507531617</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2510.786507531617</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="33">
@@ -6770,13 +6770,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,7 +6785,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2695.175226737385</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="C34" t="n">
-        <v>2526.239043809479</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223171</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223171</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223171</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760611</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028281</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950639</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249836</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279684</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497873</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250632</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609172</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609172</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609172</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609172</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609172</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609172</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="W34" t="n">
-        <v>3325.605821609172</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="X34" t="n">
-        <v>3097.616270711155</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="Y34" t="n">
-        <v>2876.823691567625</v>
+        <v>729.2011216450114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2765.246565690425</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V35" t="n">
-        <v>2434.183678346854</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W35" t="n">
-        <v>2434.183678346854</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X35" t="n">
-        <v>2434.183678346854</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>560.2649387171043</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1482993047686</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>262.2352057223754</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>115.3452582244651</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7104,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U37" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V37" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W37" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X37" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y37" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1601.11348746897</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C38" t="n">
-        <v>1232.150970528558</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D38" t="n">
-        <v>1232.150970528558</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7192,19 +7192,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
         <v>2755.806928794324</v>
@@ -7213,13 +7213,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2364.718577705862</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1601.11348746897</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
         <v>767.0908251999817</v>
@@ -7250,7 +7250,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7274,31 +7274,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V40" t="n">
-        <v>3209.430232301677</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W40" t="n">
-        <v>2920.013062264717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X40" t="n">
-        <v>2692.023511366699</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.230932223169</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.323932370578</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C41" t="n">
-        <v>722.3614154301667</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="D41" t="n">
-        <v>364.0957168234162</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>1868.063104410512</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y41" t="n">
-        <v>1477.9237724347</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7502,37 +7502,37 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501176</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="C43" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="E43" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596504</v>
@@ -7593,28 +7593,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>452.9406604881945</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U43" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V43" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W43" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="X43" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.321240915451</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>2963.006224668241</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>2631.94333732467</v>
       </c>
       <c r="W44" t="n">
-        <v>2424.060412955384</v>
+        <v>2279.174682054555</v>
       </c>
       <c r="X44" t="n">
-        <v>2424.060412955384</v>
+        <v>1905.708923793476</v>
       </c>
       <c r="Y44" t="n">
-        <v>2033.921080979572</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>631.469835781224</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="C46" t="n">
-        <v>631.469835781224</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="D46" t="n">
-        <v>631.469835781224</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="E46" t="n">
-        <v>483.5567421988309</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596504</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W46" t="n">
-        <v>631.469835781224</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="X46" t="n">
-        <v>631.469835781224</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="Y46" t="n">
-        <v>631.469835781224</v>
+        <v>120.6003534763935</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>242.2555924834018</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880636</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>202.3948476287044</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>204.5585635023746</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.391817567345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.68706256115871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>10.79895936669232</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>84.1930935245658</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354542</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827331</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>38.33818124377109</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.83657468859573</v>
+        <v>112.943054229673</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818781</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776027</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>12.5665218775348</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270549</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>88.04160906661417</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328709</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>34.54901887416412</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>202.3948476287042</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>222.8849795897602</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.3918175673448</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>84.19309352456565</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>22.7749124282733</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>4.378130057857021</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>104.8488620722108</v>
+        <v>177.9886404616774</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.83657468859553</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818779</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3148989349952949</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474336</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482523</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270546</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>70.68499503062222</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988685</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.6436733987104</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>281.6402825190382</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>102.66995624437</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.55779557164115</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95836326784812</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23235,7 +23235,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390159</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>270.4601319683928</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>165.136338328433</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23475,13 +23475,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>210.3941672268151</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>348.9508612248999</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>198.1857897438368</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>72.66698746754824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,16 +23709,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.361756451291967</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="E19" t="n">
-        <v>78.86676914958316</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>191.6652090435728</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>233.3414111029279</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>57.3082831015936</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,19 +24180,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>204.7509947629275</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265.6997797295173</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>348.9508612248994</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>66.78052218549449</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>177.7131330690471</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>337.9743263566722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>104.396136930787</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>90.70473944880632</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24657,19 +24657,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259852</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>41.28682228041183</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>348.9508612248998</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>48.09800249981194</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.7709634944054</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>321.4674883790875</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>117.6809978846692</v>
       </c>
       <c r="D34" t="n">
-        <v>94.1574425477682</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>9.345240527139595</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>150.0882792706464</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>117.6809978846694</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>147.4609218293965</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>289.8157596099708</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>296.7574771839106</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25608,16 +25608,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>137.1238099094101</v>
+        <v>14.02380761802752</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>8.361376531332212</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>167.8579417260433</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>117.8104659181696</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>34.9832454009684</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.209332775557698</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>348.5641765069984</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>92.88660797280114</v>
       </c>
       <c r="F46" t="n">
-        <v>43.32769168729925</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769754</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337678</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587493</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963041</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="F2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="H2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="I2" t="n">
         <v>296136.8796318744</v>
-      </c>
-      <c r="I2" t="n">
-        <v>296136.8796318748</v>
       </c>
       <c r="J2" t="n">
         <v>296136.8796318744</v>
@@ -26343,19 +26343,19 @@
         <v>296136.8796318746</v>
       </c>
       <c r="L2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="M2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="N2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="O2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>296136.8796318744</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751305</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.8038407444</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613411</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904891</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678771</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602629</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>107.192147960263</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723341</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
         <v>584.6469890061231</v>
@@ -26438,16 +26438,16 @@
         <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061231</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902091</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26490,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.097790851</v>
+        <v>-510698.884973262</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.33718427941</v>
+        <v>80658.0175475835</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587382</v>
+        <v>80658.0175475835</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521923</v>
+        <v>-409962.746930362</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.4855753409</v>
+        <v>168106.9519747609</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324261</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359803</v>
+        <v>56715.45483542809</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033054</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572209</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572211</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,16 +26758,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572209</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568363</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803934</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761118</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887087</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761141</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359721</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761118</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766338</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695511</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961054</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611126</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339634</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>138.461365425194</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206854</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914129</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332808</v>
+        <v>150.5912184936711</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050587</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297036</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055016</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179393</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864957</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>65.2856027012083</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421835</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674035</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113012</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825129</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0586004549034</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877945</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>79.3641940376634</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593576</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154185</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695512</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961055</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656777</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744497</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611127</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339636</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645458</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986737</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>199.755999762353</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206855</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720421</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914129</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332808</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050589</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727198</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297038</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055018</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179395</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864959</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120832</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199994</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>141.308030123369</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863685</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674038</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910843</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741627</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113013</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825131</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,13 +31518,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
         <v>280.4720934528639</v>
@@ -31536,25 +31536,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31600,7 +31600,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31609,16 +31609,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
         <v>225.2762668628872</v>
@@ -31627,16 +31627,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31703,19 +31703,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>41.7718465704379</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718123</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>131.125993899784</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040809</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.619926450834983</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986671</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887086</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679324</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6171412472592408</v>
+        <v>10.6094444076496</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945191</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394256</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813573</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043796</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718129</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997841</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744187</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040821</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431469</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>61.20161998247878</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986671</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887088</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469685</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679327</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592692</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945219</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394313</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813579</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K25" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K28" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M28" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O28" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K34" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M34" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367549</v>
+        <v>450275.6437737595</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.05951393</v>
+        <v>8636206.831769032</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730744</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="X2" t="n">
-        <v>165.1725371760944</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>52.0489752914763</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.73964154763134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443442</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>178.8948621820427</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>74.81755514382759</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
-        <v>73.70634269924216</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>88.38317822261155</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.43383855780554</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>88.09081815943084</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>92.73964154763127</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>64.81823950477609</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="10">
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="U10" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>253.7711794864442</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>204.5947623500361</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1505,7 +1505,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>76.1288311097759</v>
+        <v>28.28675945117873</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>44.7595153068084</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>5.732180395783312</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>20.95866062610959</v>
+        <v>212.2293408749854</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>346.321285169391</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>152.5938874041474</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1973,10 +1973,10 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
         <v>225.7871683969286</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.154551188815767</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>62.44097469465961</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>173.6076827274348</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>214.6609491381286</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>68.34046582263178</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.7175251574346</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1636752873189</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>37.2870774311542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>76.2838035461409</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.87152028304765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>4.791624857388847</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>285.99082894526</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>68.02930569165359</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>37.28707743115375</v>
+        <v>108.9812949757272</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.08802744677259</v>
+        <v>97.01188539214105</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>191.1326684784312</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.45423727436598</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U33" t="n">
         <v>225.7871683969286</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>49.56582321395867</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>80.77366170817052</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>194.1708171770717</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.1496593854072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.0880274467727</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>13.47236379656314</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>88.0162480906818</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.48046147214303</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>238.1138357058005</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>53.54735467376835</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>138.0957464459792</v>
       </c>
       <c r="E41" t="n">
-        <v>373.5689935409296</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>28.62349672839956</v>
+        <v>54.51165059784277</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>249.7858391833443</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>173.2057702920271</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>53.54735467376803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.0118853921412</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227597</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227597</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D2" t="n">
-        <v>393.841617006275</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897903</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>53.10181779182994</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>523.2361246735302</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652794</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652794</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652794</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652794</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652794</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652794</v>
+        <v>456.735935410456</v>
       </c>
       <c r="X2" t="n">
-        <v>583.2614020227597</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227597</v>
+        <v>160.0771049282164</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024213</v>
+        <v>51.36582106616814</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>431.9158668530685</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>550.1875401335672</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>509.3106579270987</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264277</v>
+        <v>509.3106579270987</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264277</v>
+        <v>360.9812426859789</v>
       </c>
       <c r="U3" t="n">
-        <v>487.518022609943</v>
+        <v>360.9812426859789</v>
       </c>
       <c r="V3" t="n">
-        <v>298.0982375934583</v>
+        <v>212.6518274448592</v>
       </c>
       <c r="W3" t="n">
-        <v>108.6784525769736</v>
+        <v>64.32241220373942</v>
       </c>
       <c r="X3" t="n">
-        <v>108.6784525769736</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>14.12595803543239</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510268</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396333</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828985</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828985</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828985</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828985</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828985</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828985</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828985</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828985</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7407511348962</v>
+        <v>161.728413768076</v>
       </c>
       <c r="C5" t="n">
-        <v>141.7407511348962</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D5" t="n">
-        <v>141.7407511348962</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E5" t="n">
-        <v>141.7407511348962</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F5" t="n">
-        <v>141.7407511348962</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G5" t="n">
-        <v>141.7407511348962</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678495</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262252</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S5" t="n">
-        <v>511.8624171433432</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T5" t="n">
-        <v>331.1605361513809</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="U5" t="n">
-        <v>141.7407511348962</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="V5" t="n">
-        <v>141.7407511348962</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="W5" t="n">
-        <v>141.7407511348962</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="X5" t="n">
-        <v>141.7407511348962</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.7407511348962</v>
+        <v>161.728413768076</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.231712437439</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C6" t="n">
-        <v>311.778683156312</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D6" t="n">
-        <v>311.778683156312</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E6" t="n">
-        <v>152.5412281508565</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>152.5412281508565</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N6" t="n">
-        <v>512.50005875466</v>
+        <v>476.9208474646505</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476347</v>
+        <v>578.3521085265271</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>661.4800654501</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652795</v>
+        <v>591.5564187692454</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652795</v>
+        <v>439.5527270846222</v>
       </c>
       <c r="T6" t="n">
-        <v>560.6825636487947</v>
+        <v>271.085629409543</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487947</v>
+        <v>271.085629409543</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487947</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="W6" t="n">
-        <v>486.231712437439</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="X6" t="n">
-        <v>486.231712437439</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y6" t="n">
-        <v>486.231712437439</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230175</v>
+        <v>20.64084305584018</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>31.59410626612424</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678495</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262254</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S8" t="n">
-        <v>672.2420264262254</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T8" t="n">
-        <v>482.8222414097406</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U8" t="n">
-        <v>293.4024563932559</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V8" t="n">
-        <v>103.9826713767711</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W8" t="n">
-        <v>103.9826713767711</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X8" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>326.9942574319834</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M9" t="n">
         <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>676.9378076264279</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S9" t="n">
-        <v>676.9378076264279</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T9" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U9" t="n">
-        <v>393.8416170062752</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V9" t="n">
-        <v>204.4218319897904</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W9" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330559</v>
+        <v>684.6293794685363</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>495.2095944520515</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2705.450151676319</v>
       </c>
       <c r="W11" t="n">
-        <v>2630.721789066532</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.060412955384</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.921080979572</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
         <v>767.0908251999817</v>
@@ -5117,7 +5117,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C13" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
@@ -5229,22 +5229,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V13" t="n">
-        <v>666.202517612298</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W13" t="n">
-        <v>589.3047084105042</v>
+        <v>415.8634178877041</v>
       </c>
       <c r="X13" t="n">
-        <v>361.3151575124869</v>
+        <v>415.8634178877041</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.3151575124869</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1232.248790760447</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C14" t="n">
-        <v>863.2862738200351</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3319.815740401309</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3066.285263675145</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2735.222376331575</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2382.45372106146</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2008.98796280038</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y14" t="n">
-        <v>1618.848630824569</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5445,43 +5445,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U16" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V16" t="n">
-        <v>377.0996507379416</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W16" t="n">
-        <v>87.68248070098099</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>417.0967641903301</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218342</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1628.178203944121</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1628.178203944121</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539437</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269322</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.778044008242</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y17" t="n">
-        <v>2014.778044008242</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.1203903877109</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C19" t="n">
-        <v>530.184207459804</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5682,43 +5682,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>699.1203903877109</v>
+        <v>857.8153142074177</v>
       </c>
       <c r="V19" t="n">
-        <v>699.1203903877109</v>
+        <v>603.1308260015309</v>
       </c>
       <c r="W19" t="n">
-        <v>699.1203903877109</v>
+        <v>603.1308260015309</v>
       </c>
       <c r="X19" t="n">
-        <v>699.1203903877109</v>
+        <v>603.1308260015309</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.1203903877109</v>
+        <v>382.3382468580007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1853.982617026598</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
@@ -5755,7 +5755,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5788,16 +5788,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.721789066532</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X20" t="n">
-        <v>2630.721789066532</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y20" t="n">
-        <v>2240.58245709072</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.1308394896936</v>
+        <v>450.1356741135887</v>
       </c>
       <c r="C22" t="n">
-        <v>471.1308394896936</v>
+        <v>450.1356741135887</v>
       </c>
       <c r="D22" t="n">
-        <v>471.1308394896936</v>
+        <v>450.1356741135887</v>
       </c>
       <c r="E22" t="n">
-        <v>323.2177459073005</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>176.3277984093901</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W22" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X22" t="n">
-        <v>471.1308394896936</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.1308394896936</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539437</v>
+        <v>2673.002975764887</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269322</v>
+        <v>2320.234320494773</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008242</v>
+        <v>2320.234320494773</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>1930.094988518961</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.9541770656748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C25" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6186,13 +6186,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.6026418959145</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.798686923957</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.836169983545</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3320.765796500697</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3320.765796500697</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3067.235319774533</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2736.172432430963</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2383.403777160848</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2009.938018899768</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>1619.798686923957</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
         <v>767.0908251999817</v>
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6417,19 +6417,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>87.68248070098099</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X28" t="n">
-        <v>87.68248070098099</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218342</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.514489367197</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269322</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008242</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.114329431319</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C31" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>848.0708164780106</v>
+        <v>822.8952023917798</v>
       </c>
       <c r="U31" t="n">
-        <v>848.0708164780106</v>
+        <v>822.8952023917798</v>
       </c>
       <c r="V31" t="n">
-        <v>848.0708164780106</v>
+        <v>822.8952023917798</v>
       </c>
       <c r="W31" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="X31" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="Y31" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1311.909787855438</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C32" t="n">
-        <v>1311.909787855438</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D32" t="n">
-        <v>953.6440892486878</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>567.8558366504435</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>156.8699318608359</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,40 +6785,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729.2011216450114</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X34" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y34" t="n">
-        <v>729.2011216450114</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>2201.7190780849</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1832.756561144488</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1474.490862537737</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>1088.702609939493</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>677.7167051498857</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>262.6442549948821</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W35" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X35" t="n">
-        <v>2630.721789066532</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T37" t="n">
-        <v>848.0708164780106</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U37" t="n">
-        <v>848.0708164780106</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V37" t="n">
-        <v>848.0708164780106</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="W37" t="n">
-        <v>848.0708164780106</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="X37" t="n">
-        <v>848.0708164780106</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="Y37" t="n">
-        <v>848.0708164780106</v>
+        <v>528.3452334219998</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.525483338121</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C38" t="n">
-        <v>852.5629663977095</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>494.2972677909589</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7174,10 +7174,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.125323402243</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7256,10 +7256,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,7 +7271,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218342</v>
@@ -7332,52 +7332,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V40" t="n">
-        <v>680.3679798527295</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W40" t="n">
-        <v>680.3679798527295</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X40" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y40" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1311.909787855436</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C41" t="n">
-        <v>1311.909787855436</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="D41" t="n">
-        <v>1311.909787855436</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919558</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y41" t="n">
-        <v>1698.509627919558</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,34 +7508,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.0175235133541</v>
+        <v>121.5743897633377</v>
       </c>
       <c r="C43" t="n">
-        <v>410.0175235133541</v>
+        <v>121.5743897633377</v>
       </c>
       <c r="D43" t="n">
-        <v>410.0175235133541</v>
+        <v>121.5743897633377</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133541</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V43" t="n">
-        <v>410.0175235133541</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W43" t="n">
-        <v>410.0175235133541</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X43" t="n">
-        <v>410.0175235133541</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y43" t="n">
-        <v>410.0175235133541</v>
+        <v>121.5743897633377</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1519.109083729354</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.146566788942</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>791.8808681821918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2963.006224668241</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2631.94333732467</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W44" t="n">
-        <v>2279.174682054555</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X44" t="n">
-        <v>1905.708923793476</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y44" t="n">
-        <v>1905.708923793476</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.6003534763935</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="C46" t="n">
-        <v>120.6003534763935</v>
+        <v>462.5336528533176</v>
       </c>
       <c r="D46" t="n">
-        <v>120.6003534763935</v>
+        <v>312.4170134409818</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>164.5039198585887</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>699.1203903877106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>410.0175235133541</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V46" t="n">
-        <v>410.0175235133541</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W46" t="n">
-        <v>120.6003534763935</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X46" t="n">
-        <v>120.6003534763935</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.6003534763935</v>
+        <v>631.4698357812244</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.887720574772</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>219.8989052624786</v>
       </c>
       <c r="X2" t="n">
-        <v>204.5585635023746</v>
+        <v>222.8849795897605</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>48.87899782081604</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377109</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310543</v>
+        <v>85.95446606071673</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459977</v>
+        <v>104.8488620722111</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>153.7240099120012</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.943054229673</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,31 +22743,31 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>230.7235842710633</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>218.37093033512</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>81.59093052713874</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>34.54901887416412</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871046</v>
+        <v>84.39257659920884</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>182.4585420190846</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681384</v>
+        <v>28.78198192262309</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>66.01816045109686</v>
       </c>
       <c r="W6" t="n">
-        <v>177.9886404616774</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>117.3898069808659</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>114.7859889482797</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>59.3465326483775</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594797</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>71.38234319379296</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>187.4234163286502</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445884</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988685</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>63.6436733987104</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V8" t="n">
         <v>140.226671303815</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>281.6402825190382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
@@ -23123,7 +23123,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>102.66995624437</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>38.338181243771</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310535</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459968</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>140.9547456987014</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="10">
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23232,10 +23232,10 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356656</v>
       </c>
       <c r="U10" t="n">
-        <v>234.0491352390159</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>73.98107898369074</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>165.136338328433</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23469,7 +23469,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>210.3941672268151</v>
+        <v>258.2362388854123</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>337.9743263566722</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>198.1857897438368</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23709,16 +23709,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>204.7509947629275</v>
+        <v>13.48031451405174</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.361756451291967</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>196.6470813132657</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>147.4609218293966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,13 +23943,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>223.7708635109533</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>191.6652090435728</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>155.0701515403404</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>78.09349682393739</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.3082831015936</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>136.588583182816</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.9508612248994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>210.2391947904501</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.7131330690471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.396136930787</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>100.2471097107936</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>99.21751540697424</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,10 +24657,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>197.6259927259852</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>348.9508612248998</v>
+        <v>277.2566436803264</v>
       </c>
     </row>
     <row r="30">
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>147.4609218293966</v>
+        <v>122.5370638840281</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>163.5503731422517</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>321.4674883790875</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>117.6809978846692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>137.8109916439243</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>100.4369472102487</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>150.0882792706464</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>147.4609218293965</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>238.6652795272649</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>277.2566436803257</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.7574771839106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>14.02380761802752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1623007152688</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>216.5872951747038</v>
       </c>
       <c r="E41" t="n">
-        <v>8.361376531332212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>117.8104659181696</v>
+        <v>91.92231204872641</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>1.209332775557698</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>154.5464881781078</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>92.88660797280114</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>48.40916263079005</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337677</v>
+        <v>402256.5418769751</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337677</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587493</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>144653.8320754294</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318747</v>
@@ -26328,34 +26328,34 @@
         <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318748</v>
       </c>
       <c r="H2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="I2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="J2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="L2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="M2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="N2" t="n">
-        <v>296136.8796318744</v>
-      </c>
       <c r="O2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="P2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340654</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679085</v>
       </c>
       <c r="E3" t="n">
         <v>627134.6436336676</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>38421.40650613399</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136645</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004448</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>122.1898065383437</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26453,13 +26453,13 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.11977902089</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26493,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.884973262</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.0175475835</v>
+        <v>64626.86678985717</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.0175475835</v>
+        <v>69896.83250792387</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.746930362</v>
+        <v>-406296.1510900093</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436584</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747609</v>
+        <v>182417.0860375242</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033056</v>
+        <v>215707.5254415216</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033053</v>
+        <v>215588.5853176538</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542809</v>
+        <v>60382.05067578076</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436581</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871344</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961986</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799154</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961986</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799154</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961986</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799154</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>171.547078344903</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936711</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>245.0520636988653</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,13 +31518,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
         <v>280.4720934528639</v>
@@ -31536,25 +31536,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31600,7 +31600,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31609,16 +31609,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
         <v>225.2762668628872</v>
@@ -31627,16 +31627,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31703,19 +31703,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>37.57267093057275</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076496</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>102.4558192544208</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>18.73772222104904</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
